--- a/mysql_stress/tmp/stress_export.xlsx
+++ b/mysql_stress/tmp/stress_export.xlsx
@@ -406,25 +406,25 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1369</v>
+        <v>0.1405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.077</v>
+        <v>0.0864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0857</v>
+        <v>0.0598</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1133</v>
+        <v>0.0582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0771</v>
+        <v>0.0709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1019</v>
+        <v>0.1034</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1996</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2862</v>
+        <v>0.2698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1945</v>
+        <v>0.1606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1199</v>
+        <v>0.1113</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1638</v>
+        <v>0.1022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1246</v>
+        <v>0.1144</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2119</v>
+        <v>0.1396</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2428</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>333</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5153</v>
+        <v>0.4499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3141</v>
+        <v>0.296</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1964</v>
+        <v>0.1972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1882</v>
+        <v>0.2047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1547</v>
+        <v>0.1939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2302</v>
+        <v>0.2119</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2546</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>500</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6919</v>
+        <v>0.6465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4087</v>
+        <v>0.4168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.279</v>
+        <v>0.2783</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2651</v>
+        <v>0.2169</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2659</v>
+        <v>0.2782</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2912</v>
+        <v>0.2889</v>
       </c>
       <c r="H5" t="n">
-        <v>0.321</v>
+        <v>0.3204</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>1000</v>
       </c>
       <c r="B6" t="n">
-        <v>1.3467</v>
+        <v>1.3815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7581</v>
+        <v>0.8028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5177</v>
+        <v>0.5348000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4793</v>
+        <v>0.4415</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4409</v>
+        <v>0.447</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5282</v>
+        <v>0.4867</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.539</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1369</v>
+        <v>0.0014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0385</v>
+        <v>0.0017</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0171</v>
+        <v>0.003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0113</v>
+        <v>0.0058</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0039</v>
+        <v>0.0142</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002</v>
+        <v>0.0517</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -607,25 +607,25 @@
         <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2862</v>
+        <v>0.0013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0973</v>
+        <v>0.0016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.024</v>
+        <v>0.0028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0164</v>
+        <v>0.0051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0062</v>
+        <v>0.0114</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0042</v>
+        <v>0.0349</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0024</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -633,25 +633,25 @@
         <v>333</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5153</v>
+        <v>0.0014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.157</v>
+        <v>0.0018</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0393</v>
+        <v>0.003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0188</v>
+        <v>0.0061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0077</v>
+        <v>0.0116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0046</v>
+        <v>0.0318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0025</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -659,25 +659,25 @@
         <v>500</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6919</v>
+        <v>0.0013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2044</v>
+        <v>0.0017</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0558</v>
+        <v>0.0028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0265</v>
+        <v>0.0043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0133</v>
+        <v>0.0111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0058</v>
+        <v>0.0289</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0032</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -685,25 +685,25 @@
         <v>1000</v>
       </c>
       <c r="B6" t="n">
-        <v>1.3467</v>
+        <v>0.0014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.379</v>
+        <v>0.0016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1035</v>
+        <v>0.0027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0479</v>
+        <v>0.0044</v>
       </c>
       <c r="F6" t="n">
-        <v>0.022</v>
+        <v>0.0089</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0106</v>
+        <v>0.0243</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0059</v>
+        <v>0.0539</v>
       </c>
     </row>
   </sheetData>
